--- a/public/template_stok.xlsx
+++ b/public/template_stok.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kuliah\laragon\laragon\www\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E3642B-0A66-4EB7-963A-CD1CA03B4529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C05691B-4BA7-43E6-B55A-139D53821B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{094D0BC5-7396-4A2D-8504-5235B9D6CE9B}"/>
+    <workbookView xWindow="15360" yWindow="1935" windowWidth="10920" windowHeight="11385" xr2:uid="{094D0BC5-7396-4A2D-8504-5235B9D6CE9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,19 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>barang_nama</t>
-  </si>
-  <si>
-    <t>Baju Uniqlo</t>
-  </si>
-  <si>
-    <t>supplier_nama</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>stok_jumlah</t>
   </si>
@@ -45,13 +33,16 @@
     <t>stok_tanggal</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
     <t>=TEXT(NOW(), "yyyy-mm-dd HH:mm:ss")</t>
   </si>
   <si>
-    <t>Sentra Fashion</t>
+    <t>supplier_id</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>barang_id</t>
   </si>
 </sst>
 </file>
@@ -59,7 +50,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -92,7 +83,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,7 +401,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,40 +415,39 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>27</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="1">
-        <f ca="1">NOW()</f>
-        <v>45584.800053240739</v>
+        <v>45584</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="P2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
